--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>UserName</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>actiTIME 2017.1</t>
+  </si>
+  <si>
+    <t>damager</t>
   </si>
 </sst>
 </file>
@@ -104,11 +107,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,11 +447,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -472,6 +472,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -482,34 +496,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
